--- a/Objectdateien/Materialeig.xlsx
+++ b/Objectdateien/Materialeig.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="30">
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>Friction</t>
-  </si>
-  <si>
     <t>Quelle</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>0.43</t>
-  </si>
-  <si>
     <t>http://hypertextbook.com/facts/2005/granite.shtml</t>
   </si>
   <si>
@@ -69,7 +63,49 @@
     <t>http://www.abbottplastics.com/Abbott%20Plastics%20Materials%20-%20PET,%20PBT%20and%20PEEK.htm</t>
   </si>
   <si>
-    <t>0,5-0,6</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Cork</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>http://hypertextbook.com/facts/2005/glass.shtml</t>
+  </si>
+  <si>
+    <t>dynamioc Friction</t>
+  </si>
+  <si>
+    <t>static Friction</t>
+  </si>
+  <si>
+    <t>http://www.tribology-abc.com/abc/cof.htm</t>
+  </si>
+  <si>
+    <t>http://www.engineershandbook.com/Tables/frictioncoefficients.htm</t>
+  </si>
+  <si>
+    <t>http://blog.mechguru.com/machine-design/typical-coefficient-of-friction-values-for-common-materials/</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>https://www.engineersedge.com/coeffients_of_friction.htm</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1023%2FA%3A1004315118535#page-1</t>
+  </si>
+  <si>
+    <t>https://thematking.com/business_industry/we-aint-just-mats/cork-products/int-materials-review-2005.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -446,897 +482,1054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I39"/>
+  <dimension ref="A3:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C4" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4">
         <v>0.51</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C7" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
-        <v>45</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4">
+        <v>70</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Objectdateien/Materialeig.xlsx
+++ b/Objectdateien/Materialeig.xlsx
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
